--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd81</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.02665782183457</v>
+        <v>1.465847333333333</v>
       </c>
       <c r="H2">
-        <v>1.02665782183457</v>
+        <v>4.397542</v>
       </c>
       <c r="I2">
-        <v>0.01668511206397182</v>
+        <v>0.0219775736133859</v>
       </c>
       <c r="J2">
-        <v>0.01668511206397182</v>
+        <v>0.02197757361338591</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>173.217382784631</v>
+        <v>181.5963696666667</v>
       </c>
       <c r="N2">
-        <v>173.217382784631</v>
+        <v>544.7891090000001</v>
       </c>
       <c r="O2">
-        <v>0.363110153152053</v>
+        <v>0.361289261089317</v>
       </c>
       <c r="P2">
-        <v>0.363110153152053</v>
+        <v>0.361289261089317</v>
       </c>
       <c r="Q2">
-        <v>177.8349809135542</v>
+        <v>266.1925542188976</v>
       </c>
       <c r="R2">
-        <v>177.8349809135542</v>
+        <v>2395.732987970078</v>
       </c>
       <c r="S2">
-        <v>0.006058533596907975</v>
+        <v>0.007940261331316265</v>
       </c>
       <c r="T2">
-        <v>0.006058533596907975</v>
+        <v>0.007940261331316267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.02665782183457</v>
+        <v>1.465847333333333</v>
       </c>
       <c r="H3">
-        <v>1.02665782183457</v>
+        <v>4.397542</v>
       </c>
       <c r="I3">
-        <v>0.01668511206397182</v>
+        <v>0.0219775736133859</v>
       </c>
       <c r="J3">
-        <v>0.01668511206397182</v>
+        <v>0.02197757361338591</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>203.417914904329</v>
+        <v>203.8031973333333</v>
       </c>
       <c r="N3">
-        <v>203.417914904329</v>
+        <v>611.409592</v>
       </c>
       <c r="O3">
-        <v>0.4264185790557725</v>
+        <v>0.4054701462774667</v>
       </c>
       <c r="P3">
-        <v>0.4264185790557725</v>
+        <v>0.4054701462774667</v>
       </c>
       <c r="Q3">
-        <v>208.8405934378083</v>
+        <v>298.7443733358737</v>
       </c>
       <c r="R3">
-        <v>208.8405934378083</v>
+        <v>2688.699360022864</v>
       </c>
       <c r="S3">
-        <v>0.007114841777705191</v>
+        <v>0.008911249987843374</v>
       </c>
       <c r="T3">
-        <v>0.007114841777705191</v>
+        <v>0.008911249987843376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.02665782183457</v>
+        <v>1.465847333333333</v>
       </c>
       <c r="H4">
-        <v>1.02665782183457</v>
+        <v>4.397542</v>
       </c>
       <c r="I4">
-        <v>0.01668511206397182</v>
+        <v>0.0219775736133859</v>
       </c>
       <c r="J4">
-        <v>0.01668511206397182</v>
+        <v>0.02197757361338591</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.9488418792748</v>
+        <v>28.96574966666667</v>
       </c>
       <c r="N4">
-        <v>25.9488418792748</v>
+        <v>86.89724900000002</v>
       </c>
       <c r="O4">
-        <v>0.05439574133628975</v>
+        <v>0.0576278827224213</v>
       </c>
       <c r="P4">
-        <v>0.05439574133628975</v>
+        <v>0.0576278827224213</v>
       </c>
       <c r="Q4">
-        <v>26.64058148290594</v>
+        <v>42.45936690688423</v>
       </c>
       <c r="R4">
-        <v>26.64058148290594</v>
+        <v>382.134302161958</v>
       </c>
       <c r="S4">
-        <v>0.0009075990399988189</v>
+        <v>0.001266521034715584</v>
       </c>
       <c r="T4">
-        <v>0.0009075990399988189</v>
+        <v>0.001266521034715584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.02665782183457</v>
+        <v>1.465847333333333</v>
       </c>
       <c r="H5">
-        <v>1.02665782183457</v>
+        <v>4.397542</v>
       </c>
       <c r="I5">
-        <v>0.01668511206397182</v>
+        <v>0.0219775736133859</v>
       </c>
       <c r="J5">
-        <v>0.01668511206397182</v>
+        <v>0.02197757361338591</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>74.4539748468583</v>
+        <v>88.26896899999998</v>
       </c>
       <c r="N5">
-        <v>74.4539748468583</v>
+        <v>264.806907</v>
       </c>
       <c r="O5">
-        <v>0.1560755264558849</v>
+        <v>0.175612709910795</v>
       </c>
       <c r="P5">
-        <v>0.1560755264558849</v>
+        <v>0.175612709910795</v>
       </c>
       <c r="Q5">
-        <v>76.43875564320142</v>
+        <v>129.3888328247326</v>
       </c>
       <c r="R5">
-        <v>76.43875564320142</v>
+        <v>1164.499495422594</v>
       </c>
       <c r="S5">
-        <v>0.002604137649359838</v>
+        <v>0.003859541259510681</v>
       </c>
       <c r="T5">
-        <v>0.002604137649359838</v>
+        <v>0.003859541259510682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.8995502036242</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H6">
-        <v>51.8995502036242</v>
+        <v>155.774437</v>
       </c>
       <c r="I6">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699432</v>
       </c>
       <c r="J6">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>173.217382784631</v>
+        <v>181.5963696666667</v>
       </c>
       <c r="N6">
-        <v>173.217382784631</v>
+        <v>544.7891090000001</v>
       </c>
       <c r="O6">
-        <v>0.363110153152053</v>
+        <v>0.361289261089317</v>
       </c>
       <c r="P6">
-        <v>0.363110153152053</v>
+        <v>0.361289261089317</v>
       </c>
       <c r="Q6">
-        <v>8989.904253971348</v>
+        <v>9429.357415356291</v>
       </c>
       <c r="R6">
-        <v>8989.904253971348</v>
+        <v>84864.21673820663</v>
       </c>
       <c r="S6">
-        <v>0.3062706598886028</v>
+        <v>0.2812684309822763</v>
       </c>
       <c r="T6">
-        <v>0.3062706598886028</v>
+        <v>0.2812684309822764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.8995502036242</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H7">
-        <v>51.8995502036242</v>
+        <v>155.774437</v>
       </c>
       <c r="I7">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699432</v>
       </c>
       <c r="J7">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699435</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>203.417914904329</v>
+        <v>203.8031973333333</v>
       </c>
       <c r="N7">
-        <v>203.417914904329</v>
+        <v>611.409592</v>
       </c>
       <c r="O7">
-        <v>0.4264185790557725</v>
+        <v>0.4054701462774667</v>
       </c>
       <c r="P7">
-        <v>0.4264185790557725</v>
+        <v>0.4054701462774667</v>
       </c>
       <c r="Q7">
-        <v>10557.29828689378</v>
+        <v>10582.44277446663</v>
       </c>
       <c r="R7">
-        <v>10557.29828689378</v>
+        <v>95241.98497019969</v>
       </c>
       <c r="S7">
-        <v>0.3596690934210342</v>
+        <v>0.3156638298900973</v>
       </c>
       <c r="T7">
-        <v>0.3596690934210342</v>
+        <v>0.3156638298900974</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.8995502036242</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H8">
-        <v>51.8995502036242</v>
+        <v>155.774437</v>
       </c>
       <c r="I8">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699432</v>
       </c>
       <c r="J8">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699435</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.9488418792748</v>
+        <v>28.96574966666667</v>
       </c>
       <c r="N8">
-        <v>25.9488418792748</v>
+        <v>86.89724900000002</v>
       </c>
       <c r="O8">
-        <v>0.05439574133628975</v>
+        <v>0.0576278827224213</v>
       </c>
       <c r="P8">
-        <v>0.05439574133628975</v>
+        <v>0.0576278827224213</v>
       </c>
       <c r="Q8">
-        <v>1346.733221839329</v>
+        <v>1504.041115535979</v>
       </c>
       <c r="R8">
-        <v>1346.733221839329</v>
+        <v>13536.37003982381</v>
       </c>
       <c r="S8">
-        <v>0.04588089715910225</v>
+        <v>0.04486406295414063</v>
       </c>
       <c r="T8">
-        <v>0.04588089715910225</v>
+        <v>0.04486406295414064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>51.8995502036242</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H9">
-        <v>51.8995502036242</v>
+        <v>155.774437</v>
       </c>
       <c r="I9">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699432</v>
       </c>
       <c r="J9">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699435</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.4539748468583</v>
+        <v>88.26896899999998</v>
       </c>
       <c r="N9">
-        <v>74.4539748468583</v>
+        <v>264.806907</v>
       </c>
       <c r="O9">
-        <v>0.1560755264558849</v>
+        <v>0.175612709910795</v>
       </c>
       <c r="P9">
-        <v>0.1560755264558849</v>
+        <v>0.175612709910795</v>
       </c>
       <c r="Q9">
-        <v>3864.127805423896</v>
+        <v>4583.349650181816</v>
       </c>
       <c r="R9">
-        <v>3864.127805423896</v>
+        <v>41250.14685163635</v>
       </c>
       <c r="S9">
-        <v>0.1316442243907403</v>
+        <v>0.136716799243429</v>
       </c>
       <c r="T9">
-        <v>0.1316442243907403</v>
+        <v>0.136716799243429</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>8.60516304944298</v>
+        <v>0.05191500000000001</v>
       </c>
       <c r="H10">
-        <v>8.60516304944298</v>
+        <v>0.155745</v>
       </c>
       <c r="I10">
-        <v>0.1398500130765487</v>
+        <v>0.0007783660059225787</v>
       </c>
       <c r="J10">
-        <v>0.1398500130765487</v>
+        <v>0.0007783660059225788</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>173.217382784631</v>
+        <v>181.5963696666667</v>
       </c>
       <c r="N10">
-        <v>173.217382784631</v>
+        <v>544.7891090000001</v>
       </c>
       <c r="O10">
-        <v>0.363110153152053</v>
+        <v>0.361289261089317</v>
       </c>
       <c r="P10">
-        <v>0.363110153152053</v>
+        <v>0.361289261089317</v>
       </c>
       <c r="Q10">
-        <v>1490.563821859527</v>
+        <v>9.427575531245003</v>
       </c>
       <c r="R10">
-        <v>1490.563821859527</v>
+        <v>84.84817978120502</v>
       </c>
       <c r="S10">
-        <v>0.05078095966654221</v>
+        <v>0.0002812152791368114</v>
       </c>
       <c r="T10">
-        <v>0.05078095966654221</v>
+        <v>0.0002812152791368115</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>8.60516304944298</v>
+        <v>0.05191500000000001</v>
       </c>
       <c r="H11">
-        <v>8.60516304944298</v>
+        <v>0.155745</v>
       </c>
       <c r="I11">
-        <v>0.1398500130765487</v>
+        <v>0.0007783660059225787</v>
       </c>
       <c r="J11">
-        <v>0.1398500130765487</v>
+        <v>0.0007783660059225788</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>203.417914904329</v>
+        <v>203.8031973333333</v>
       </c>
       <c r="N11">
-        <v>203.417914904329</v>
+        <v>611.409592</v>
       </c>
       <c r="O11">
-        <v>0.4264185790557725</v>
+        <v>0.4054701462774667</v>
       </c>
       <c r="P11">
-        <v>0.4264185790557725</v>
+        <v>0.4054701462774667</v>
       </c>
       <c r="Q11">
-        <v>1750.444324929468</v>
+        <v>10.58044298956</v>
       </c>
       <c r="R11">
-        <v>1750.444324929468</v>
+        <v>95.22398690604001</v>
       </c>
       <c r="S11">
-        <v>0.0596346438570331</v>
+        <v>0.0003156041782788355</v>
       </c>
       <c r="T11">
-        <v>0.0596346438570331</v>
+        <v>0.0003156041782788355</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>8.60516304944298</v>
+        <v>0.05191500000000001</v>
       </c>
       <c r="H12">
-        <v>8.60516304944298</v>
+        <v>0.155745</v>
       </c>
       <c r="I12">
-        <v>0.1398500130765487</v>
+        <v>0.0007783660059225787</v>
       </c>
       <c r="J12">
-        <v>0.1398500130765487</v>
+        <v>0.0007783660059225788</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.9488418792748</v>
+        <v>28.96574966666667</v>
       </c>
       <c r="N12">
-        <v>25.9488418792748</v>
+        <v>86.89724900000002</v>
       </c>
       <c r="O12">
-        <v>0.05439574133628975</v>
+        <v>0.0576278827224213</v>
       </c>
       <c r="P12">
-        <v>0.05439574133628975</v>
+        <v>0.0576278827224213</v>
       </c>
       <c r="Q12">
-        <v>223.2940153153741</v>
+        <v>1.503756893945001</v>
       </c>
       <c r="R12">
-        <v>223.2940153153741</v>
+        <v>13.53381204550501</v>
       </c>
       <c r="S12">
-        <v>0.007607245137188683</v>
+        <v>4.485558490442585E-05</v>
       </c>
       <c r="T12">
-        <v>0.007607245137188683</v>
+        <v>4.485558490442585E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.05191500000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.155745</v>
+      </c>
+      <c r="I13">
+        <v>0.0007783660059225787</v>
+      </c>
+      <c r="J13">
+        <v>0.0007783660059225788</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>88.26896899999998</v>
+      </c>
+      <c r="N13">
+        <v>264.806907</v>
+      </c>
+      <c r="O13">
+        <v>0.175612709910795</v>
+      </c>
+      <c r="P13">
+        <v>0.175612709910795</v>
+      </c>
+      <c r="Q13">
+        <v>4.582483525635</v>
+      </c>
+      <c r="R13">
+        <v>41.242351730715</v>
+      </c>
+      <c r="S13">
+        <v>0.0001366909636025059</v>
+      </c>
+      <c r="T13">
+        <v>0.0001366909636025059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>13.25483966666666</v>
+      </c>
+      <c r="H14">
+        <v>39.76451899999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1987309373107482</v>
+      </c>
+      <c r="J14">
+        <v>0.1987309373107483</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>181.5963696666667</v>
+      </c>
+      <c r="N14">
+        <v>544.7891090000001</v>
+      </c>
+      <c r="O14">
+        <v>0.361289261089317</v>
+      </c>
+      <c r="P14">
+        <v>0.361289261089317</v>
+      </c>
+      <c r="Q14">
+        <v>2407.030763980396</v>
+      </c>
+      <c r="R14">
+        <v>21663.27687582357</v>
+      </c>
+      <c r="S14">
+        <v>0.0717993534965876</v>
+      </c>
+      <c r="T14">
+        <v>0.07179935349658761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>13.25483966666666</v>
+      </c>
+      <c r="H15">
+        <v>39.76451899999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1987309373107482</v>
+      </c>
+      <c r="J15">
+        <v>0.1987309373107483</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>203.8031973333333</v>
+      </c>
+      <c r="N15">
+        <v>611.409592</v>
+      </c>
+      <c r="O15">
+        <v>0.4054701462774667</v>
+      </c>
+      <c r="P15">
+        <v>0.4054701462774667</v>
+      </c>
+      <c r="Q15">
+        <v>2701.37870420736</v>
+      </c>
+      <c r="R15">
+        <v>24312.40833786624</v>
+      </c>
+      <c r="S15">
+        <v>0.08057946222124714</v>
+      </c>
+      <c r="T15">
+        <v>0.08057946222124716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>8.60516304944298</v>
-      </c>
-      <c r="H13">
-        <v>8.60516304944298</v>
-      </c>
-      <c r="I13">
-        <v>0.1398500130765487</v>
-      </c>
-      <c r="J13">
-        <v>0.1398500130765487</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>74.4539748468583</v>
-      </c>
-      <c r="N13">
-        <v>74.4539748468583</v>
-      </c>
-      <c r="O13">
-        <v>0.1560755264558849</v>
-      </c>
-      <c r="P13">
-        <v>0.1560755264558849</v>
-      </c>
-      <c r="Q13">
-        <v>640.6885932363422</v>
-      </c>
-      <c r="R13">
-        <v>640.6885932363422</v>
-      </c>
-      <c r="S13">
-        <v>0.02182716441578472</v>
-      </c>
-      <c r="T13">
-        <v>0.02182716441578472</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>13.25483966666666</v>
+      </c>
+      <c r="H16">
+        <v>39.76451899999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1987309373107482</v>
+      </c>
+      <c r="J16">
+        <v>0.1987309373107483</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>28.96574966666667</v>
+      </c>
+      <c r="N16">
+        <v>86.89724900000002</v>
+      </c>
+      <c r="O16">
+        <v>0.0576278827224213</v>
+      </c>
+      <c r="P16">
+        <v>0.0576278827224213</v>
+      </c>
+      <c r="Q16">
+        <v>383.9363676564701</v>
+      </c>
+      <c r="R16">
+        <v>3455.427308908231</v>
+      </c>
+      <c r="S16">
+        <v>0.01145244314866066</v>
+      </c>
+      <c r="T16">
+        <v>0.01145244314866066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>13.25483966666666</v>
+      </c>
+      <c r="H17">
+        <v>39.76451899999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1987309373107482</v>
+      </c>
+      <c r="J17">
+        <v>0.1987309373107483</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>88.26896899999998</v>
+      </c>
+      <c r="N17">
+        <v>264.806907</v>
+      </c>
+      <c r="O17">
+        <v>0.175612709910795</v>
+      </c>
+      <c r="P17">
+        <v>0.175612709910795</v>
+      </c>
+      <c r="Q17">
+        <v>1169.99103163697</v>
+      </c>
+      <c r="R17">
+        <v>10529.91928473273</v>
+      </c>
+      <c r="S17">
+        <v>0.0348996784442528</v>
+      </c>
+      <c r="T17">
+        <v>0.03489967844425281</v>
       </c>
     </row>
   </sheetData>
